--- a/data/fakecsv/dept_FB.xlsx
+++ b/data/fakecsv/dept_FB.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1126" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="109">
   <si>
     <t>Department</t>
   </si>
@@ -25,7 +25,7 @@
     <t>User ID</t>
   </si>
   <si>
-    <t>Fullname</t>
+    <t>Name</t>
   </si>
   <si>
     <t>System1</t>
@@ -40,262 +40,280 @@
     <t>FB</t>
   </si>
   <si>
-    <t>RG522L278P3M1BLK7</t>
-  </si>
-  <si>
-    <t>UGA33AF461SNMFNZ3</t>
-  </si>
-  <si>
-    <t>C14FLRWW0RBFVKM90</t>
-  </si>
-  <si>
-    <t>DR9ERF790ENC20WTW</t>
-  </si>
-  <si>
-    <t>UC418K5B5TS2MNK3Z</t>
-  </si>
-  <si>
-    <t>UPF94J549T6CSH8PL</t>
-  </si>
-  <si>
-    <t>55WA8139466EDX6L6</t>
-  </si>
-  <si>
-    <t>P3SBUNT49E658DRUZ</t>
-  </si>
-  <si>
-    <t>6F6EFVPK179XXRB33</t>
-  </si>
-  <si>
-    <t>X944CH4R9BK0UB04L</t>
-  </si>
-  <si>
-    <t>STP990R213UJDGWXR</t>
-  </si>
-  <si>
-    <t>R0NKRNEV1WYU2LP96</t>
-  </si>
-  <si>
-    <t>KKW56UMK2Y76M9JRT</t>
-  </si>
-  <si>
-    <t>9557FTMN1792DLSCL</t>
-  </si>
-  <si>
-    <t>3PLBET6R002ZFV7P4</t>
-  </si>
-  <si>
-    <t>TAMBTPCK578KP886B</t>
-  </si>
-  <si>
-    <t>YJ89LJZG5ST5M1MT7</t>
-  </si>
-  <si>
-    <t>J0Z0BCE61G678MCFF</t>
-  </si>
-  <si>
-    <t>9JG08MUV4ENFR14MZ</t>
-  </si>
-  <si>
-    <t>PFV2PSU85BRD27NFS</t>
-  </si>
-  <si>
-    <t>PE0BJ4N17VCFE5DEG</t>
-  </si>
-  <si>
-    <t>G3PAXU6T8Y9TN61XP</t>
-  </si>
-  <si>
-    <t>7CLXYC3E18A0PVXY2</t>
-  </si>
-  <si>
-    <t>R5040BGV0ZKZPLNX9</t>
-  </si>
-  <si>
-    <t>YFJ9PBAD07GT4JVSF</t>
-  </si>
-  <si>
-    <t>U2RCJBM321UZMM6E2</t>
-  </si>
-  <si>
-    <t>NVX6BKC54CSGG4RXY</t>
-  </si>
-  <si>
-    <t>48XF4634XGSPYRYED</t>
-  </si>
-  <si>
-    <t>LTLRRW6D9VRDSCNLF</t>
-  </si>
-  <si>
-    <t>LF8BN3TGXGKDCNMWK</t>
-  </si>
-  <si>
-    <t>1ZW5XMKN2N32E0K26</t>
-  </si>
-  <si>
-    <t>7L6VX3UZ3G0W9ZXDP</t>
-  </si>
-  <si>
-    <t>H8S7V5LW0H1N0L1BE</t>
-  </si>
-  <si>
-    <t>PEGZS7693XUDWM09H</t>
-  </si>
-  <si>
-    <t>M1TFJ5C50VMC7335U</t>
-  </si>
-  <si>
-    <t>X5LN9P6N7LRDLTVCH</t>
-  </si>
-  <si>
-    <t>0B8DY0T09ZYWXAWM2</t>
-  </si>
-  <si>
-    <t>AE6UYC2E9R0W2MT4V</t>
-  </si>
-  <si>
-    <t>R6H1LKF6XTYMVWSJ7</t>
-  </si>
-  <si>
-    <t>PF5YE01R83RY9C3RS</t>
-  </si>
-  <si>
-    <t>3XVKLUKW1B561WW72</t>
-  </si>
-  <si>
-    <t>W9ZJNGDW7WBDCMJ4Y</t>
-  </si>
-  <si>
-    <t>BETVFRAV5UTZBFJ80</t>
-  </si>
-  <si>
-    <t>Scott Rodriguez</t>
-  </si>
-  <si>
-    <t>Karen Pope</t>
-  </si>
-  <si>
-    <t>Krista Bates</t>
-  </si>
-  <si>
-    <t>Ann Pittman</t>
-  </si>
-  <si>
-    <t>Linda Jones</t>
-  </si>
-  <si>
-    <t>Mike Gonzalez</t>
-  </si>
-  <si>
-    <t>Jimmy Rodriguez</t>
-  </si>
-  <si>
-    <t>Robert Nunez</t>
-  </si>
-  <si>
-    <t>Marc Church</t>
-  </si>
-  <si>
-    <t>Jennifer Gaines DVM</t>
-  </si>
-  <si>
-    <t>Tiffany Bush</t>
-  </si>
-  <si>
-    <t>Michelle Wilson</t>
-  </si>
-  <si>
-    <t>Brandon Sharp</t>
-  </si>
-  <si>
-    <t>Amanda Cantrell</t>
-  </si>
-  <si>
-    <t>William Lewis MD</t>
-  </si>
-  <si>
-    <t>Theresa Reed</t>
-  </si>
-  <si>
-    <t>Katrina Thompson</t>
-  </si>
-  <si>
-    <t>Andrew Shelton</t>
-  </si>
-  <si>
-    <t>Emily Miranda</t>
-  </si>
-  <si>
-    <t>Calvin Suarez</t>
-  </si>
-  <si>
-    <t>David Walton</t>
-  </si>
-  <si>
-    <t>Benjamin Riley</t>
-  </si>
-  <si>
-    <t>Stephanie Jones</t>
-  </si>
-  <si>
-    <t>Stacie Little</t>
-  </si>
-  <si>
-    <t>Lauren Duarte</t>
-  </si>
-  <si>
-    <t>Rachel Fox</t>
-  </si>
-  <si>
-    <t>Gary Bishop</t>
-  </si>
-  <si>
-    <t>Carl Burke</t>
-  </si>
-  <si>
-    <t>Rachel Caldwell</t>
-  </si>
-  <si>
-    <t>Michael Patterson</t>
-  </si>
-  <si>
-    <t>Diana Ward</t>
-  </si>
-  <si>
-    <t>Barbara Jones</t>
-  </si>
-  <si>
-    <t>Sabrina Mills</t>
-  </si>
-  <si>
-    <t>Kristin Marquez</t>
-  </si>
-  <si>
-    <t>Joshua Lindsey</t>
-  </si>
-  <si>
-    <t>Michael Nichols</t>
-  </si>
-  <si>
-    <t>Rebecca Gentry</t>
-  </si>
-  <si>
-    <t>Julie Gilbert</t>
-  </si>
-  <si>
-    <t>Julie Wright</t>
-  </si>
-  <si>
-    <t>Pamela Grimes</t>
-  </si>
-  <si>
-    <t>James Johnston</t>
-  </si>
-  <si>
-    <t>Fernando Santos</t>
-  </si>
-  <si>
-    <t>Pamela Williams</t>
+    <t>HVNG39AN195VMXWDW</t>
+  </si>
+  <si>
+    <t>ZP2K0KKDXF1U114TE</t>
+  </si>
+  <si>
+    <t>UCS3E5SC83EDSJUXZ</t>
+  </si>
+  <si>
+    <t>20AXLVV212GV99RH2</t>
+  </si>
+  <si>
+    <t>5UTVT3F98F08KG83Y</t>
+  </si>
+  <si>
+    <t>014B70XJ2X5K8LZGA</t>
+  </si>
+  <si>
+    <t>841YS2BV1ZJSW5T3C</t>
+  </si>
+  <si>
+    <t>L6BB14VPXMMY08ALW</t>
+  </si>
+  <si>
+    <t>5S7Y9X8Y81UM9DBY3</t>
+  </si>
+  <si>
+    <t>NJN9V37T6UUY1K54A</t>
+  </si>
+  <si>
+    <t>WCFCVAV87Z1MMA7RA</t>
+  </si>
+  <si>
+    <t>PD95BTF7XLFGDXWXB</t>
+  </si>
+  <si>
+    <t>D55XKXV93AK07A2W9</t>
+  </si>
+  <si>
+    <t>HC5TR00K4BKSMHEMS</t>
+  </si>
+  <si>
+    <t>09P5X4FE6K2EUF04A</t>
+  </si>
+  <si>
+    <t>MA370G2J4N0MP3KHF</t>
+  </si>
+  <si>
+    <t>U5TSD5NE2BGF3TVF7</t>
+  </si>
+  <si>
+    <t>8F44ECCN25LMDT4T1</t>
+  </si>
+  <si>
+    <t>M302LKT4XS935C8VN</t>
+  </si>
+  <si>
+    <t>DBGS2FU64Y4X85VPZ</t>
+  </si>
+  <si>
+    <t>EGTURRWR8KLV9FW47</t>
+  </si>
+  <si>
+    <t>RVRJ6WEH686MET1YS</t>
+  </si>
+  <si>
+    <t>RESGZ56C4A8P1P28A</t>
+  </si>
+  <si>
+    <t>T8JWYPA3821LNUH97</t>
+  </si>
+  <si>
+    <t>XWHU8H2A4207FLKAJ</t>
+  </si>
+  <si>
+    <t>X4RUE94L79MZNP6UB</t>
+  </si>
+  <si>
+    <t>Z2V4ZHJ977NU7ZGF8</t>
+  </si>
+  <si>
+    <t>HHWGMJ9Z0AWCYBJYJ</t>
+  </si>
+  <si>
+    <t>50SWZ8Y71M937PTCM</t>
+  </si>
+  <si>
+    <t>BDHE4H1E9M0H9X67G</t>
+  </si>
+  <si>
+    <t>CJ5JJJMKXY32EX9WV</t>
+  </si>
+  <si>
+    <t>4WF0HF9P3EBMNLCMK</t>
+  </si>
+  <si>
+    <t>16AP4D0X4U6ZZ3JSZ</t>
+  </si>
+  <si>
+    <t>XK0YTJZ091E0FTFZ6</t>
+  </si>
+  <si>
+    <t>YR1GWW6T921JCBYGC</t>
+  </si>
+  <si>
+    <t>AJYX6H3Y368ZFXLTS</t>
+  </si>
+  <si>
+    <t>ATN0HN6C10SR0SFG8</t>
+  </si>
+  <si>
+    <t>G7H6EFJK5Z4XLHWZU</t>
+  </si>
+  <si>
+    <t>44HU6NZ34S5GE83XU</t>
+  </si>
+  <si>
+    <t>Y1MBCZH871EARSYTJ</t>
+  </si>
+  <si>
+    <t>ST0Y15EU67ZB6Z2R1</t>
+  </si>
+  <si>
+    <t>VYZLZA998W406WXEZ</t>
+  </si>
+  <si>
+    <t>RZJCC25S2BRR0779L</t>
+  </si>
+  <si>
+    <t>UJK77LSJ1Z0V43HEX</t>
+  </si>
+  <si>
+    <t>T103LWLB75N83ZKFY</t>
+  </si>
+  <si>
+    <t>M9G5W4CD7MXTVWKAU</t>
+  </si>
+  <si>
+    <t>Keith Williams</t>
+  </si>
+  <si>
+    <t>Kaylee Walsh</t>
+  </si>
+  <si>
+    <t>Hannah Meyers</t>
+  </si>
+  <si>
+    <t>Kevin Rowe</t>
+  </si>
+  <si>
+    <t>Lucas Ramirez</t>
+  </si>
+  <si>
+    <t>Jonathan Wiggins</t>
+  </si>
+  <si>
+    <t>Lindsey Berg</t>
+  </si>
+  <si>
+    <t>Nicholas Ayala</t>
+  </si>
+  <si>
+    <t>Gerald Peterson</t>
+  </si>
+  <si>
+    <t>Claire Chang</t>
+  </si>
+  <si>
+    <t>Justin Woods</t>
+  </si>
+  <si>
+    <t>Brianna Glenn</t>
+  </si>
+  <si>
+    <t>Amanda Smith DDS</t>
+  </si>
+  <si>
+    <t>Kelly Pearson</t>
+  </si>
+  <si>
+    <t>Debra Davis</t>
+  </si>
+  <si>
+    <t>Christine Howard</t>
+  </si>
+  <si>
+    <t>Audrey Wang</t>
+  </si>
+  <si>
+    <t>Ronald Gonzalez</t>
+  </si>
+  <si>
+    <t>Dr. Robert Martinez</t>
+  </si>
+  <si>
+    <t>Debra Meyer</t>
+  </si>
+  <si>
+    <t>Mr. David Hayden</t>
+  </si>
+  <si>
+    <t>Gabrielle Rodriguez</t>
+  </si>
+  <si>
+    <t>Melissa Smith</t>
+  </si>
+  <si>
+    <t>Makayla Rodriguez</t>
+  </si>
+  <si>
+    <t>Alex Pearson</t>
+  </si>
+  <si>
+    <t>Cheyenne Hunter</t>
+  </si>
+  <si>
+    <t>David Lambert</t>
+  </si>
+  <si>
+    <t>Stacy Wallace</t>
+  </si>
+  <si>
+    <t>Brian Torres</t>
+  </si>
+  <si>
+    <t>Crystal Allen</t>
+  </si>
+  <si>
+    <t>Christopher Alvarez</t>
+  </si>
+  <si>
+    <t>Brittany Gaines</t>
+  </si>
+  <si>
+    <t>Emily Gallagher</t>
+  </si>
+  <si>
+    <t>Jessica Hunter</t>
+  </si>
+  <si>
+    <t>Dean Butler</t>
+  </si>
+  <si>
+    <t>Michael Sutton</t>
+  </si>
+  <si>
+    <t>Caleb Harris</t>
+  </si>
+  <si>
+    <t>Maria Watson</t>
+  </si>
+  <si>
+    <t>Jason Freeman</t>
+  </si>
+  <si>
+    <t>Jacob Gould</t>
+  </si>
+  <si>
+    <t>Christina Watson</t>
+  </si>
+  <si>
+    <t>Morgan Strong</t>
+  </si>
+  <si>
+    <t>Anna Jenkins</t>
+  </si>
+  <si>
+    <t>Jacqueline Velazquez</t>
+  </si>
+  <si>
+    <t>Christina Gordon</t>
+  </si>
+  <si>
+    <t>Cameron Anderson</t>
   </si>
   <si>
     <t>KLSE</t>
@@ -680,7 +698,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F225"/>
+  <dimension ref="A1:F201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -717,10 +735,10 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E2" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -734,10 +752,10 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E3" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -751,10 +769,10 @@
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E4" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -765,13 +783,13 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E5" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -782,13 +800,13 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E6" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -799,13 +817,13 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E7" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -816,13 +834,13 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E8" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -836,10 +854,10 @@
         <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E9" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -853,10 +871,10 @@
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E10" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -870,10 +888,10 @@
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E11" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -884,13 +902,13 @@
         <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E12" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -901,13 +919,13 @@
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E13" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -918,13 +936,13 @@
         <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E14" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -935,13 +953,13 @@
         <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E15" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -952,13 +970,13 @@
         <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E16" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -969,13 +987,13 @@
         <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D17" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E17" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -986,13 +1004,13 @@
         <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D18" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E18" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1003,13 +1021,13 @@
         <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D19" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E19" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1020,13 +1038,13 @@
         <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D20" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E20" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1037,13 +1055,13 @@
         <v>7</v>
       </c>
       <c r="C21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D21" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E21" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1054,13 +1072,13 @@
         <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E22" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1071,13 +1089,13 @@
         <v>7</v>
       </c>
       <c r="C23" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E23" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1088,13 +1106,13 @@
         <v>7</v>
       </c>
       <c r="C24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D24" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E24" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1105,13 +1123,13 @@
         <v>7</v>
       </c>
       <c r="C25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D25" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E25" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1122,13 +1140,13 @@
         <v>7</v>
       </c>
       <c r="C26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D26" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E26" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1139,13 +1157,13 @@
         <v>7</v>
       </c>
       <c r="C27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D27" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E27" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1156,13 +1174,13 @@
         <v>7</v>
       </c>
       <c r="C28" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D28" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E28" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1173,13 +1191,13 @@
         <v>7</v>
       </c>
       <c r="C29" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D29" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E29" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1190,13 +1208,13 @@
         <v>7</v>
       </c>
       <c r="C30" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D30" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E30" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1207,13 +1225,13 @@
         <v>7</v>
       </c>
       <c r="C31" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D31" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E31" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1224,13 +1242,13 @@
         <v>7</v>
       </c>
       <c r="C32" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D32" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E32" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1241,13 +1259,13 @@
         <v>7</v>
       </c>
       <c r="C33" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D33" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E33" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1258,13 +1276,13 @@
         <v>7</v>
       </c>
       <c r="C34" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D34" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E34" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1275,13 +1293,13 @@
         <v>7</v>
       </c>
       <c r="C35" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D35" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E35" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1292,13 +1310,13 @@
         <v>7</v>
       </c>
       <c r="C36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D36" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E36" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1309,13 +1327,13 @@
         <v>7</v>
       </c>
       <c r="C37" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D37" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E37" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1326,13 +1344,13 @@
         <v>7</v>
       </c>
       <c r="C38" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D38" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E38" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1343,13 +1361,13 @@
         <v>7</v>
       </c>
       <c r="C39" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D39" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E39" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1360,13 +1378,13 @@
         <v>7</v>
       </c>
       <c r="C40" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D40" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E40" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1377,13 +1395,13 @@
         <v>7</v>
       </c>
       <c r="C41" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D41" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E41" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1394,13 +1412,13 @@
         <v>7</v>
       </c>
       <c r="C42" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D42" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E42" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1411,13 +1429,13 @@
         <v>7</v>
       </c>
       <c r="C43" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D43" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E43" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1431,10 +1449,10 @@
         <v>17</v>
       </c>
       <c r="D44" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E44" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1448,10 +1466,10 @@
         <v>17</v>
       </c>
       <c r="D45" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E45" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1465,10 +1483,10 @@
         <v>17</v>
       </c>
       <c r="D46" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E46" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1482,10 +1500,10 @@
         <v>17</v>
       </c>
       <c r="D47" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E47" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1499,10 +1517,10 @@
         <v>17</v>
       </c>
       <c r="D48" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E48" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1516,10 +1534,10 @@
         <v>17</v>
       </c>
       <c r="D49" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E49" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1530,13 +1548,13 @@
         <v>7</v>
       </c>
       <c r="C50" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D50" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E50" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1547,13 +1565,13 @@
         <v>7</v>
       </c>
       <c r="C51" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D51" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E51" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1564,13 +1582,13 @@
         <v>7</v>
       </c>
       <c r="C52" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D52" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E52" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1581,13 +1599,13 @@
         <v>7</v>
       </c>
       <c r="C53" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D53" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E53" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1598,13 +1616,13 @@
         <v>7</v>
       </c>
       <c r="C54" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D54" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E54" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1615,13 +1633,13 @@
         <v>7</v>
       </c>
       <c r="C55" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D55" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E55" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1632,13 +1650,13 @@
         <v>7</v>
       </c>
       <c r="C56" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D56" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E56" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1649,13 +1667,13 @@
         <v>7</v>
       </c>
       <c r="C57" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D57" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E57" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1666,13 +1684,13 @@
         <v>7</v>
       </c>
       <c r="C58" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D58" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E58" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1683,13 +1701,13 @@
         <v>7</v>
       </c>
       <c r="C59" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D59" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E59" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1700,13 +1718,13 @@
         <v>7</v>
       </c>
       <c r="C60" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D60" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E60" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1717,13 +1735,13 @@
         <v>7</v>
       </c>
       <c r="C61" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D61" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E61" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1734,13 +1752,13 @@
         <v>7</v>
       </c>
       <c r="C62" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D62" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E62" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1754,7 +1772,7 @@
         <v>20</v>
       </c>
       <c r="D63" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E63" t="s">
         <v>100</v>
@@ -1768,13 +1786,13 @@
         <v>7</v>
       </c>
       <c r="C64" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D64" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E64" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1788,10 +1806,10 @@
         <v>21</v>
       </c>
       <c r="D65" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E65" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1805,10 +1823,10 @@
         <v>21</v>
       </c>
       <c r="D66" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E66" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1822,10 +1840,10 @@
         <v>21</v>
       </c>
       <c r="D67" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E67" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1839,10 +1857,10 @@
         <v>21</v>
       </c>
       <c r="D68" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1856,10 +1874,10 @@
         <v>21</v>
       </c>
       <c r="D69" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E69" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1870,13 +1888,13 @@
         <v>7</v>
       </c>
       <c r="C70" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D70" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E70" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1890,10 +1908,10 @@
         <v>22</v>
       </c>
       <c r="D71" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E71" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1907,10 +1925,10 @@
         <v>23</v>
       </c>
       <c r="D72" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E72" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1924,10 +1942,10 @@
         <v>23</v>
       </c>
       <c r="D73" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E73" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1941,10 +1959,10 @@
         <v>23</v>
       </c>
       <c r="D74" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E74" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1958,10 +1976,10 @@
         <v>23</v>
       </c>
       <c r="D75" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E75" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1975,10 +1993,10 @@
         <v>23</v>
       </c>
       <c r="D76" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E76" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -1992,10 +2010,10 @@
         <v>23</v>
       </c>
       <c r="D77" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E77" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2009,10 +2027,10 @@
         <v>23</v>
       </c>
       <c r="D78" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E78" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2023,13 +2041,13 @@
         <v>7</v>
       </c>
       <c r="C79" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D79" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E79" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2040,13 +2058,13 @@
         <v>7</v>
       </c>
       <c r="C80" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D80" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E80" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2057,13 +2075,13 @@
         <v>7</v>
       </c>
       <c r="C81" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D81" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E81" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2077,10 +2095,10 @@
         <v>25</v>
       </c>
       <c r="D82" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E82" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2094,10 +2112,10 @@
         <v>25</v>
       </c>
       <c r="D83" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E83" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2111,10 +2129,10 @@
         <v>25</v>
       </c>
       <c r="D84" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E84" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2128,10 +2146,10 @@
         <v>26</v>
       </c>
       <c r="D85" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E85" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2142,13 +2160,13 @@
         <v>7</v>
       </c>
       <c r="C86" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D86" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E86" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -2159,13 +2177,13 @@
         <v>7</v>
       </c>
       <c r="C87" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D87" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E87" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -2176,13 +2194,13 @@
         <v>7</v>
       </c>
       <c r="C88" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D88" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E88" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -2193,13 +2211,13 @@
         <v>7</v>
       </c>
       <c r="C89" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D89" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="E89" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -2210,13 +2228,13 @@
         <v>7</v>
       </c>
       <c r="C90" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D90" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E90" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2227,13 +2245,13 @@
         <v>7</v>
       </c>
       <c r="C91" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D91" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E91" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2244,13 +2262,13 @@
         <v>7</v>
       </c>
       <c r="C92" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D92" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E92" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2261,13 +2279,13 @@
         <v>7</v>
       </c>
       <c r="C93" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D93" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E93" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2278,13 +2296,13 @@
         <v>7</v>
       </c>
       <c r="C94" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D94" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E94" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2295,13 +2313,13 @@
         <v>7</v>
       </c>
       <c r="C95" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D95" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E95" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2312,13 +2330,13 @@
         <v>7</v>
       </c>
       <c r="C96" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D96" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E96" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2329,13 +2347,13 @@
         <v>7</v>
       </c>
       <c r="C97" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D97" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E97" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2346,13 +2364,13 @@
         <v>7</v>
       </c>
       <c r="C98" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D98" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E98" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2363,13 +2381,13 @@
         <v>7</v>
       </c>
       <c r="C99" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D99" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E99" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2380,13 +2398,13 @@
         <v>7</v>
       </c>
       <c r="C100" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D100" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="E100" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2397,13 +2415,13 @@
         <v>7</v>
       </c>
       <c r="C101" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D101" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="E101" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2414,13 +2432,13 @@
         <v>7</v>
       </c>
       <c r="C102" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D102" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="E102" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2431,13 +2449,13 @@
         <v>7</v>
       </c>
       <c r="C103" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D103" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="E103" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2448,13 +2466,13 @@
         <v>7</v>
       </c>
       <c r="C104" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D104" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="E104" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2465,13 +2483,13 @@
         <v>7</v>
       </c>
       <c r="C105" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D105" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="E105" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2482,13 +2500,13 @@
         <v>7</v>
       </c>
       <c r="C106" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D106" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="E106" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2499,10 +2517,10 @@
         <v>7</v>
       </c>
       <c r="C107" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D107" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="E107" t="s">
         <v>100</v>
@@ -2516,10 +2534,10 @@
         <v>7</v>
       </c>
       <c r="C108" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D108" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="E108" t="s">
         <v>101</v>
@@ -2533,10 +2551,10 @@
         <v>7</v>
       </c>
       <c r="C109" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D109" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="E109" t="s">
         <v>102</v>
@@ -2550,13 +2568,13 @@
         <v>7</v>
       </c>
       <c r="C110" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D110" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="E110" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -2567,13 +2585,13 @@
         <v>7</v>
       </c>
       <c r="C111" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D111" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="E111" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -2584,13 +2602,13 @@
         <v>7</v>
       </c>
       <c r="C112" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D112" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="E112" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -2601,13 +2619,13 @@
         <v>7</v>
       </c>
       <c r="C113" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D113" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="E113" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -2618,13 +2636,13 @@
         <v>7</v>
       </c>
       <c r="C114" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D114" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="E114" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -2635,13 +2653,13 @@
         <v>7</v>
       </c>
       <c r="C115" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D115" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="E115" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -2652,13 +2670,13 @@
         <v>7</v>
       </c>
       <c r="C116" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D116" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="E116" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -2669,13 +2687,13 @@
         <v>7</v>
       </c>
       <c r="C117" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D117" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="E117" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -2686,13 +2704,13 @@
         <v>7</v>
       </c>
       <c r="C118" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D118" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="E118" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -2703,13 +2721,13 @@
         <v>7</v>
       </c>
       <c r="C119" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D119" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="E119" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -2720,13 +2738,13 @@
         <v>7</v>
       </c>
       <c r="C120" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D120" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="E120" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -2737,13 +2755,13 @@
         <v>7</v>
       </c>
       <c r="C121" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D121" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="E121" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -2754,13 +2772,13 @@
         <v>7</v>
       </c>
       <c r="C122" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D122" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="E122" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -2771,13 +2789,13 @@
         <v>7</v>
       </c>
       <c r="C123" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D123" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="E123" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -2788,13 +2806,13 @@
         <v>7</v>
       </c>
       <c r="C124" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D124" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="E124" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -2805,13 +2823,13 @@
         <v>7</v>
       </c>
       <c r="C125" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D125" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="E125" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -2822,13 +2840,13 @@
         <v>7</v>
       </c>
       <c r="C126" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D126" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="E126" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -2839,13 +2857,13 @@
         <v>7</v>
       </c>
       <c r="C127" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D127" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="E127" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -2856,10 +2874,10 @@
         <v>7</v>
       </c>
       <c r="C128" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D128" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="E128" t="s">
         <v>100</v>
@@ -2873,13 +2891,13 @@
         <v>7</v>
       </c>
       <c r="C129" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D129" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="E129" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -2890,13 +2908,13 @@
         <v>7</v>
       </c>
       <c r="C130" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D130" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="E130" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -2907,13 +2925,13 @@
         <v>7</v>
       </c>
       <c r="C131" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D131" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="E131" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -2924,13 +2942,13 @@
         <v>7</v>
       </c>
       <c r="C132" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D132" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="E132" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -2941,13 +2959,13 @@
         <v>7</v>
       </c>
       <c r="C133" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D133" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="E133" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -2958,13 +2976,13 @@
         <v>7</v>
       </c>
       <c r="C134" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D134" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="E134" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -2975,13 +2993,13 @@
         <v>7</v>
       </c>
       <c r="C135" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D135" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="E135" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -2992,13 +3010,13 @@
         <v>7</v>
       </c>
       <c r="C136" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D136" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="E136" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -3009,13 +3027,13 @@
         <v>7</v>
       </c>
       <c r="C137" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D137" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="E137" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -3026,13 +3044,13 @@
         <v>7</v>
       </c>
       <c r="C138" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D138" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="E138" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -3043,13 +3061,13 @@
         <v>7</v>
       </c>
       <c r="C139" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D139" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E139" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -3060,13 +3078,13 @@
         <v>7</v>
       </c>
       <c r="C140" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D140" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E140" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -3077,13 +3095,13 @@
         <v>7</v>
       </c>
       <c r="C141" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D141" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E141" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -3094,13 +3112,13 @@
         <v>7</v>
       </c>
       <c r="C142" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D142" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E142" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -3111,13 +3129,13 @@
         <v>7</v>
       </c>
       <c r="C143" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D143" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E143" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -3128,13 +3146,13 @@
         <v>7</v>
       </c>
       <c r="C144" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D144" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E144" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -3145,10 +3163,10 @@
         <v>7</v>
       </c>
       <c r="C145" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D145" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="E145" t="s">
         <v>100</v>
@@ -3162,13 +3180,13 @@
         <v>7</v>
       </c>
       <c r="C146" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D146" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="E146" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -3179,13 +3197,13 @@
         <v>7</v>
       </c>
       <c r="C147" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D147" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="E147" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -3196,13 +3214,13 @@
         <v>7</v>
       </c>
       <c r="C148" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D148" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="E148" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -3213,13 +3231,13 @@
         <v>7</v>
       </c>
       <c r="C149" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D149" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="E149" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -3230,13 +3248,13 @@
         <v>7</v>
       </c>
       <c r="C150" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D150" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="E150" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -3247,13 +3265,13 @@
         <v>7</v>
       </c>
       <c r="C151" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D151" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="E151" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -3264,13 +3282,13 @@
         <v>7</v>
       </c>
       <c r="C152" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D152" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="E152" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -3281,13 +3299,13 @@
         <v>7</v>
       </c>
       <c r="C153" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D153" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="E153" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -3298,13 +3316,13 @@
         <v>7</v>
       </c>
       <c r="C154" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D154" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="E154" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -3315,13 +3333,13 @@
         <v>7</v>
       </c>
       <c r="C155" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D155" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="E155" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -3332,13 +3350,13 @@
         <v>7</v>
       </c>
       <c r="C156" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D156" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="E156" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -3349,13 +3367,13 @@
         <v>7</v>
       </c>
       <c r="C157" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D157" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="E157" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -3366,13 +3384,13 @@
         <v>7</v>
       </c>
       <c r="C158" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D158" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="E158" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -3383,13 +3401,13 @@
         <v>7</v>
       </c>
       <c r="C159" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D159" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="E159" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -3400,13 +3418,13 @@
         <v>7</v>
       </c>
       <c r="C160" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D160" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="E160" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -3417,13 +3435,13 @@
         <v>7</v>
       </c>
       <c r="C161" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D161" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="E161" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -3434,13 +3452,13 @@
         <v>7</v>
       </c>
       <c r="C162" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D162" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="E162" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -3451,13 +3469,13 @@
         <v>7</v>
       </c>
       <c r="C163" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D163" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="E163" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -3468,13 +3486,13 @@
         <v>7</v>
       </c>
       <c r="C164" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D164" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="E164" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -3485,13 +3503,13 @@
         <v>7</v>
       </c>
       <c r="C165" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D165" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="E165" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -3502,13 +3520,13 @@
         <v>7</v>
       </c>
       <c r="C166" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D166" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="E166" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -3519,13 +3537,13 @@
         <v>7</v>
       </c>
       <c r="C167" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D167" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="E167" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -3536,13 +3554,13 @@
         <v>7</v>
       </c>
       <c r="C168" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D168" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="E168" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -3553,13 +3571,13 @@
         <v>7</v>
       </c>
       <c r="C169" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D169" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="E169" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -3570,13 +3588,13 @@
         <v>7</v>
       </c>
       <c r="C170" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D170" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="E170" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -3587,13 +3605,13 @@
         <v>7</v>
       </c>
       <c r="C171" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D171" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="E171" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -3604,13 +3622,13 @@
         <v>7</v>
       </c>
       <c r="C172" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="D172" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="E172" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -3621,13 +3639,13 @@
         <v>7</v>
       </c>
       <c r="C173" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="D173" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="E173" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -3638,13 +3656,13 @@
         <v>7</v>
       </c>
       <c r="C174" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D174" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="E174" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -3655,13 +3673,13 @@
         <v>7</v>
       </c>
       <c r="C175" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D175" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="E175" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -3672,13 +3690,13 @@
         <v>7</v>
       </c>
       <c r="C176" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D176" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="E176" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -3689,13 +3707,13 @@
         <v>7</v>
       </c>
       <c r="C177" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D177" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="E177" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -3706,13 +3724,13 @@
         <v>7</v>
       </c>
       <c r="C178" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D178" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="E178" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -3723,13 +3741,13 @@
         <v>7</v>
       </c>
       <c r="C179" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D179" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="E179" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -3740,13 +3758,13 @@
         <v>7</v>
       </c>
       <c r="C180" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="D180" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="E180" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -3757,13 +3775,13 @@
         <v>7</v>
       </c>
       <c r="C181" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D181" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="E181" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -3774,13 +3792,13 @@
         <v>7</v>
       </c>
       <c r="C182" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D182" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="E182" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -3791,13 +3809,13 @@
         <v>7</v>
       </c>
       <c r="C183" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="D183" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="E183" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -3808,13 +3826,13 @@
         <v>7</v>
       </c>
       <c r="C184" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="D184" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="E184" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -3825,13 +3843,13 @@
         <v>7</v>
       </c>
       <c r="C185" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="D185" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="E185" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -3842,13 +3860,13 @@
         <v>7</v>
       </c>
       <c r="C186" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="D186" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="E186" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -3859,13 +3877,13 @@
         <v>7</v>
       </c>
       <c r="C187" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="D187" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="E187" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -3876,13 +3894,13 @@
         <v>7</v>
       </c>
       <c r="C188" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="D188" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="E188" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -3893,13 +3911,13 @@
         <v>7</v>
       </c>
       <c r="C189" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="D189" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="E189" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -3910,13 +3928,13 @@
         <v>7</v>
       </c>
       <c r="C190" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="D190" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="E190" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -3927,13 +3945,13 @@
         <v>7</v>
       </c>
       <c r="C191" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="D191" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="E191" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -3944,13 +3962,13 @@
         <v>7</v>
       </c>
       <c r="C192" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="D192" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="E192" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -3961,13 +3979,13 @@
         <v>7</v>
       </c>
       <c r="C193" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="D193" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="E193" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -3978,13 +3996,13 @@
         <v>7</v>
       </c>
       <c r="C194" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="D194" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="E194" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -3995,13 +4013,13 @@
         <v>7</v>
       </c>
       <c r="C195" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="D195" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="E195" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -4012,13 +4030,13 @@
         <v>7</v>
       </c>
       <c r="C196" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="D196" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="E196" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -4029,13 +4047,13 @@
         <v>7</v>
       </c>
       <c r="C197" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="D197" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="E197" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -4046,13 +4064,13 @@
         <v>7</v>
       </c>
       <c r="C198" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="D198" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="E198" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -4063,13 +4081,13 @@
         <v>7</v>
       </c>
       <c r="C199" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D199" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="E199" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -4080,13 +4098,13 @@
         <v>7</v>
       </c>
       <c r="C200" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D200" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="E200" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -4097,421 +4115,13 @@
         <v>7</v>
       </c>
       <c r="C201" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D201" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="E201" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5">
-      <c r="A202" t="s">
-        <v>6</v>
-      </c>
-      <c r="B202" t="s">
-        <v>7</v>
-      </c>
-      <c r="C202" t="s">
-        <v>45</v>
-      </c>
-      <c r="D202" t="s">
-        <v>88</v>
-      </c>
-      <c r="E202" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5">
-      <c r="A203" t="s">
-        <v>6</v>
-      </c>
-      <c r="B203" t="s">
-        <v>7</v>
-      </c>
-      <c r="C203" t="s">
-        <v>45</v>
-      </c>
-      <c r="D203" t="s">
-        <v>88</v>
-      </c>
-      <c r="E203" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5">
-      <c r="A204" t="s">
-        <v>6</v>
-      </c>
-      <c r="B204" t="s">
-        <v>7</v>
-      </c>
-      <c r="C204" t="s">
-        <v>46</v>
-      </c>
-      <c r="D204" t="s">
-        <v>89</v>
-      </c>
-      <c r="E204" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5">
-      <c r="A205" t="s">
-        <v>6</v>
-      </c>
-      <c r="B205" t="s">
-        <v>7</v>
-      </c>
-      <c r="C205" t="s">
-        <v>46</v>
-      </c>
-      <c r="D205" t="s">
-        <v>89</v>
-      </c>
-      <c r="E205" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5">
-      <c r="A206" t="s">
-        <v>6</v>
-      </c>
-      <c r="B206" t="s">
-        <v>7</v>
-      </c>
-      <c r="C206" t="s">
-        <v>46</v>
-      </c>
-      <c r="D206" t="s">
-        <v>89</v>
-      </c>
-      <c r="E206" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5">
-      <c r="A207" t="s">
-        <v>6</v>
-      </c>
-      <c r="B207" t="s">
-        <v>7</v>
-      </c>
-      <c r="C207" t="s">
-        <v>47</v>
-      </c>
-      <c r="D207" t="s">
-        <v>90</v>
-      </c>
-      <c r="E207" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5">
-      <c r="A208" t="s">
-        <v>6</v>
-      </c>
-      <c r="B208" t="s">
-        <v>7</v>
-      </c>
-      <c r="C208" t="s">
-        <v>47</v>
-      </c>
-      <c r="D208" t="s">
-        <v>90</v>
-      </c>
-      <c r="E208" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5">
-      <c r="A209" t="s">
-        <v>6</v>
-      </c>
-      <c r="B209" t="s">
-        <v>7</v>
-      </c>
-      <c r="C209" t="s">
-        <v>47</v>
-      </c>
-      <c r="D209" t="s">
-        <v>90</v>
-      </c>
-      <c r="E209" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5">
-      <c r="A210" t="s">
-        <v>6</v>
-      </c>
-      <c r="B210" t="s">
-        <v>7</v>
-      </c>
-      <c r="C210" t="s">
-        <v>47</v>
-      </c>
-      <c r="D210" t="s">
-        <v>90</v>
-      </c>
-      <c r="E210" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5">
-      <c r="A211" t="s">
-        <v>6</v>
-      </c>
-      <c r="B211" t="s">
-        <v>7</v>
-      </c>
-      <c r="C211" t="s">
-        <v>47</v>
-      </c>
-      <c r="D211" t="s">
-        <v>90</v>
-      </c>
-      <c r="E211" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5">
-      <c r="A212" t="s">
-        <v>6</v>
-      </c>
-      <c r="B212" t="s">
-        <v>7</v>
-      </c>
-      <c r="C212" t="s">
-        <v>48</v>
-      </c>
-      <c r="D212" t="s">
-        <v>91</v>
-      </c>
-      <c r="E212" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5">
-      <c r="A213" t="s">
-        <v>6</v>
-      </c>
-      <c r="B213" t="s">
-        <v>7</v>
-      </c>
-      <c r="C213" t="s">
-        <v>48</v>
-      </c>
-      <c r="D213" t="s">
-        <v>91</v>
-      </c>
-      <c r="E213" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5">
-      <c r="A214" t="s">
-        <v>6</v>
-      </c>
-      <c r="B214" t="s">
-        <v>7</v>
-      </c>
-      <c r="C214" t="s">
-        <v>48</v>
-      </c>
-      <c r="D214" t="s">
-        <v>91</v>
-      </c>
-      <c r="E214" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5">
-      <c r="A215" t="s">
-        <v>6</v>
-      </c>
-      <c r="B215" t="s">
-        <v>7</v>
-      </c>
-      <c r="C215" t="s">
-        <v>49</v>
-      </c>
-      <c r="D215" t="s">
-        <v>92</v>
-      </c>
-      <c r="E215" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5">
-      <c r="A216" t="s">
-        <v>6</v>
-      </c>
-      <c r="B216" t="s">
-        <v>7</v>
-      </c>
-      <c r="C216" t="s">
-        <v>49</v>
-      </c>
-      <c r="D216" t="s">
-        <v>92</v>
-      </c>
-      <c r="E216" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5">
-      <c r="A217" t="s">
-        <v>6</v>
-      </c>
-      <c r="B217" t="s">
-        <v>7</v>
-      </c>
-      <c r="C217" t="s">
-        <v>49</v>
-      </c>
-      <c r="D217" t="s">
-        <v>92</v>
-      </c>
-      <c r="E217" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5">
-      <c r="A218" t="s">
-        <v>6</v>
-      </c>
-      <c r="B218" t="s">
-        <v>7</v>
-      </c>
-      <c r="C218" t="s">
-        <v>49</v>
-      </c>
-      <c r="D218" t="s">
-        <v>92</v>
-      </c>
-      <c r="E218" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5">
-      <c r="A219" t="s">
-        <v>6</v>
-      </c>
-      <c r="B219" t="s">
-        <v>7</v>
-      </c>
-      <c r="C219" t="s">
-        <v>49</v>
-      </c>
-      <c r="D219" t="s">
-        <v>92</v>
-      </c>
-      <c r="E219" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5">
-      <c r="A220" t="s">
-        <v>6</v>
-      </c>
-      <c r="B220" t="s">
-        <v>7</v>
-      </c>
-      <c r="C220" t="s">
-        <v>49</v>
-      </c>
-      <c r="D220" t="s">
-        <v>92</v>
-      </c>
-      <c r="E220" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5">
-      <c r="A221" t="s">
-        <v>6</v>
-      </c>
-      <c r="B221" t="s">
-        <v>7</v>
-      </c>
-      <c r="C221" t="s">
-        <v>50</v>
-      </c>
-      <c r="D221" t="s">
-        <v>93</v>
-      </c>
-      <c r="E221" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5">
-      <c r="A222" t="s">
-        <v>6</v>
-      </c>
-      <c r="B222" t="s">
-        <v>7</v>
-      </c>
-      <c r="C222" t="s">
-        <v>50</v>
-      </c>
-      <c r="D222" t="s">
-        <v>93</v>
-      </c>
-      <c r="E222" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5">
-      <c r="A223" t="s">
-        <v>6</v>
-      </c>
-      <c r="B223" t="s">
-        <v>7</v>
-      </c>
-      <c r="C223" t="s">
-        <v>50</v>
-      </c>
-      <c r="D223" t="s">
-        <v>93</v>
-      </c>
-      <c r="E223" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5">
-      <c r="A224" t="s">
-        <v>6</v>
-      </c>
-      <c r="B224" t="s">
-        <v>7</v>
-      </c>
-      <c r="C224" t="s">
-        <v>50</v>
-      </c>
-      <c r="D224" t="s">
-        <v>93</v>
-      </c>
-      <c r="E224" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5">
-      <c r="A225" t="s">
-        <v>6</v>
-      </c>
-      <c r="B225" t="s">
-        <v>7</v>
-      </c>
-      <c r="C225" t="s">
-        <v>50</v>
-      </c>
-      <c r="D225" t="s">
-        <v>93</v>
-      </c>
-      <c r="E225" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
